--- a/Material_plots/rubber cord/Resistance Measurement.xlsx
+++ b/Material_plots/rubber cord/Resistance Measurement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\old\fig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\Material_plots\rubber cord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D965A0-4276-402B-9630-A506B55B7ACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED6C25-9DB5-4740-836E-C7C534F6545A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2285,7 +2285,7 @@
   <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
@@ -2363,7 +2363,7 @@
         <v>289.41000000000003</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(B2:K2)</f>
+        <f t="shared" ref="M2:M8" si="0">AVERAGE(B2:K2)</f>
         <v>290.16399999999999</v>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
         <v>395.51</v>
       </c>
       <c r="M3">
-        <f>AVERAGE(B3:K3)</f>
+        <f t="shared" si="0"/>
         <v>378.68400000000003</v>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
         <v>385.35</v>
       </c>
       <c r="M4">
-        <f>AVERAGE(B4:K4)</f>
+        <f t="shared" si="0"/>
         <v>392.22999999999996</v>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
         <v>381.07</v>
       </c>
       <c r="M5">
-        <f>AVERAGE(B5:K5)</f>
+        <f t="shared" si="0"/>
         <v>397.60199999999998</v>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
         <v>379.88</v>
       </c>
       <c r="M6">
-        <f>AVERAGE(B6:K6)</f>
+        <f t="shared" si="0"/>
         <v>393.41500000000002</v>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
         <v>376.92</v>
       </c>
       <c r="M7">
-        <f>AVERAGE(B7:K7)</f>
+        <f t="shared" si="0"/>
         <v>395.88</v>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
         <v>390.82</v>
       </c>
       <c r="M8">
-        <f>AVERAGE(B8:K8)</f>
+        <f t="shared" si="0"/>
         <v>402.26300000000003</v>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
         <v>595.20000000000005</v>
       </c>
       <c r="M10">
-        <f>AVERAGE(B10:K10)</f>
+        <f t="shared" ref="M10:M22" si="1">AVERAGE(B10:K10)</f>
         <v>596.67199999999991</v>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
         <v>618.52</v>
       </c>
       <c r="M11">
-        <f>AVERAGE(B11:K11)</f>
+        <f t="shared" si="1"/>
         <v>667.18299999999999</v>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
         <v>700.15</v>
       </c>
       <c r="M12">
-        <f>AVERAGE(B12:K12)</f>
+        <f t="shared" si="1"/>
         <v>738.62599999999998</v>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
         <v>762.92</v>
       </c>
       <c r="M13">
-        <f>AVERAGE(B13:K13)</f>
+        <f t="shared" si="1"/>
         <v>788.82299999999998</v>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
         <v>787.05</v>
       </c>
       <c r="M14">
-        <f>AVERAGE(B14:K14)</f>
+        <f t="shared" si="1"/>
         <v>816.39099999999996</v>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
         <v>795.2</v>
       </c>
       <c r="M15">
-        <f>AVERAGE(B15:K15)</f>
+        <f t="shared" si="1"/>
         <v>822.35100000000023</v>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
         <v>800.13</v>
       </c>
       <c r="M16">
-        <f>AVERAGE(B16:K16)</f>
+        <f t="shared" si="1"/>
         <v>826.01699999999983</v>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
         <v>806.31</v>
       </c>
       <c r="M17">
-        <f>AVERAGE(B17:K17)</f>
+        <f t="shared" si="1"/>
         <v>833.42900000000009</v>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
         <v>812.98</v>
       </c>
       <c r="M18">
-        <f>AVERAGE(B18:K18)</f>
+        <f t="shared" si="1"/>
         <v>835.8119999999999</v>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
         <v>799.14</v>
       </c>
       <c r="M19">
-        <f>AVERAGE(B19:K19)</f>
+        <f t="shared" si="1"/>
         <v>842.45499999999993</v>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
         <v>826.63</v>
       </c>
       <c r="M20">
-        <f>AVERAGE(B20:K20)</f>
+        <f t="shared" si="1"/>
         <v>844.13800000000015</v>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
         <v>799.34</v>
       </c>
       <c r="M21">
-        <f>AVERAGE(B21:K21)</f>
+        <f t="shared" si="1"/>
         <v>848.80399999999986</v>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
         <v>822.45</v>
       </c>
       <c r="M22">
-        <f>AVERAGE(B22:K22)</f>
+        <f t="shared" si="1"/>
         <v>847.76200000000006</v>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
         <v>868.06</v>
       </c>
       <c r="M24">
-        <f>AVERAGE(B24:K24)</f>
+        <f t="shared" ref="M24:M42" si="2">AVERAGE(B24:K24)</f>
         <v>860.97100000000012</v>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
         <v>1073.5</v>
       </c>
       <c r="M25">
-        <f>AVERAGE(B25:K25)</f>
+        <f t="shared" si="2"/>
         <v>996.38599999999985</v>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
         <v>1144.9000000000001</v>
       </c>
       <c r="M26">
-        <f>AVERAGE(B26:K26)</f>
+        <f t="shared" si="2"/>
         <v>1063.713</v>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
         <v>1230.73</v>
       </c>
       <c r="M27">
-        <f>AVERAGE(B27:K27)</f>
+        <f t="shared" si="2"/>
         <v>1115.203</v>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
         <v>1269.93</v>
       </c>
       <c r="M28">
-        <f>AVERAGE(B28:K28)</f>
+        <f t="shared" si="2"/>
         <v>1147.0580000000002</v>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
         <v>1281.49</v>
       </c>
       <c r="M29">
-        <f>AVERAGE(B29:K29)</f>
+        <f t="shared" si="2"/>
         <v>1156.606</v>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
         <v>1295.6300000000001</v>
       </c>
       <c r="M30">
-        <f>AVERAGE(B30:K30)</f>
+        <f t="shared" si="2"/>
         <v>1167.1790000000001</v>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
         <v>1287.1099999999999</v>
       </c>
       <c r="M31">
-        <f>AVERAGE(B31:K31)</f>
+        <f t="shared" si="2"/>
         <v>1175.123</v>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
         <v>1304.25</v>
       </c>
       <c r="M32">
-        <f>AVERAGE(B32:K32)</f>
+        <f t="shared" si="2"/>
         <v>1176.4169999999999</v>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
         <v>1285.7</v>
       </c>
       <c r="M33">
-        <f>AVERAGE(B33:K33)</f>
+        <f t="shared" si="2"/>
         <v>1179.855</v>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
         <v>1303.77</v>
       </c>
       <c r="M34">
-        <f>AVERAGE(B34:K34)</f>
+        <f t="shared" si="2"/>
         <v>1185.7050000000002</v>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
         <v>1264</v>
       </c>
       <c r="M35">
-        <f>AVERAGE(B35:K35)</f>
+        <f t="shared" si="2"/>
         <v>1175.7320000000002</v>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
         <v>1281.49</v>
       </c>
       <c r="M36">
-        <f>AVERAGE(B36:K36)</f>
+        <f t="shared" si="2"/>
         <v>1172.9970000000001</v>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
         <v>1285.24</v>
       </c>
       <c r="M37">
-        <f>AVERAGE(B37:K37)</f>
+        <f t="shared" si="2"/>
         <v>1204.04</v>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
         <v>1294.2</v>
       </c>
       <c r="M38">
-        <f>AVERAGE(B38:K38)</f>
+        <f t="shared" si="2"/>
         <v>1209.2090000000003</v>
       </c>
     </row>
@@ -3728,7 +3728,7 @@
         <v>1284.77</v>
       </c>
       <c r="M39">
-        <f>AVERAGE(B39:K39)</f>
+        <f t="shared" si="2"/>
         <v>1200.913</v>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
         <v>1285.7</v>
       </c>
       <c r="M40">
-        <f>AVERAGE(B40:K40)</f>
+        <f t="shared" si="2"/>
         <v>1208.6400000000001</v>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
         <v>1290.8900000000001</v>
       </c>
       <c r="M41">
-        <f>AVERAGE(B41:K41)</f>
+        <f t="shared" si="2"/>
         <v>1214.7719999999999</v>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
         <v>1305.7</v>
       </c>
       <c r="M42">
-        <f>AVERAGE(B42:K42)</f>
+        <f t="shared" si="2"/>
         <v>1219.6100000000001</v>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
         <v>1325.78</v>
       </c>
       <c r="M44">
-        <f>AVERAGE(B44:K44)</f>
+        <f t="shared" ref="M44:M68" si="3">AVERAGE(B44:K44)</f>
         <v>1290.9929999999999</v>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
         <v>1495.32</v>
       </c>
       <c r="M45">
-        <f>AVERAGE(B45:K45)</f>
+        <f t="shared" si="3"/>
         <v>1412.8920000000001</v>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
         <v>1638.31</v>
       </c>
       <c r="M46">
-        <f>AVERAGE(B46:K46)</f>
+        <f t="shared" si="3"/>
         <v>1528.34</v>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
         <v>1716.24</v>
       </c>
       <c r="M47">
-        <f>AVERAGE(B47:K47)</f>
+        <f t="shared" si="3"/>
         <v>1594.365</v>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
         <v>1766.78</v>
       </c>
       <c r="M48">
-        <f>AVERAGE(B48:K48)</f>
+        <f t="shared" si="3"/>
         <v>1639.3789999999997</v>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
         <v>1781.37</v>
       </c>
       <c r="M49">
-        <f>AVERAGE(B49:K49)</f>
+        <f t="shared" si="3"/>
         <v>1691.9180000000001</v>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
         <v>1797.95</v>
       </c>
       <c r="M50">
-        <f>AVERAGE(B50:K50)</f>
+        <f t="shared" si="3"/>
         <v>1706.3889999999999</v>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
         <v>1797.95</v>
       </c>
       <c r="M51">
-        <f>AVERAGE(B51:K51)</f>
+        <f t="shared" si="3"/>
         <v>1710.0459999999998</v>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
         <v>1795.32</v>
       </c>
       <c r="M52">
-        <f>AVERAGE(B52:K52)</f>
+        <f t="shared" si="3"/>
         <v>1716.136</v>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
         <v>1797.95</v>
       </c>
       <c r="M53">
-        <f>AVERAGE(B53:K53)</f>
+        <f t="shared" si="3"/>
         <v>1733.9880000000001</v>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
         <v>1794.44</v>
       </c>
       <c r="M54">
-        <f>AVERAGE(B54:K54)</f>
+        <f t="shared" si="3"/>
         <v>1721.5399999999997</v>
       </c>
     </row>
@@ -4313,7 +4313,7 @@
         <v>1764.23</v>
       </c>
       <c r="M55">
-        <f>AVERAGE(B55:K55)</f>
+        <f t="shared" si="3"/>
         <v>1712.5</v>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
         <v>1752.42</v>
       </c>
       <c r="M56">
-        <f>AVERAGE(B56:K56)</f>
+        <f t="shared" si="3"/>
         <v>1720.789</v>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
         <v>1752.42</v>
       </c>
       <c r="M57">
-        <f>AVERAGE(B57:K57)</f>
+        <f t="shared" si="3"/>
         <v>1715.8790000000001</v>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
         <v>1746.57</v>
       </c>
       <c r="M58">
-        <f>AVERAGE(B58:K58)</f>
+        <f t="shared" si="3"/>
         <v>1717.1530000000002</v>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
         <v>1749.9</v>
       </c>
       <c r="M59">
-        <f>AVERAGE(B59:K59)</f>
+        <f t="shared" si="3"/>
         <v>1713.17</v>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
         <v>1738.27</v>
       </c>
       <c r="M60">
-        <f>AVERAGE(B60:K60)</f>
+        <f t="shared" si="3"/>
         <v>1724.643</v>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
         <v>1743.24</v>
       </c>
       <c r="M61">
-        <f>AVERAGE(B61:K61)</f>
+        <f t="shared" si="3"/>
         <v>1715.1569999999999</v>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
         <v>1751.58</v>
       </c>
       <c r="M62">
-        <f>AVERAGE(B62:K62)</f>
+        <f t="shared" si="3"/>
         <v>1717.1330000000003</v>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
         <v>1759.15</v>
       </c>
       <c r="M63">
-        <f>AVERAGE(B63:K63)</f>
+        <f t="shared" si="3"/>
         <v>1711.1030000000003</v>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
         <v>1746.57</v>
       </c>
       <c r="M64">
-        <f>AVERAGE(B64:K64)</f>
+        <f t="shared" si="3"/>
         <v>1711.2050000000004</v>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         <v>1750.74</v>
       </c>
       <c r="M65">
-        <f>AVERAGE(B65:K65)</f>
+        <f t="shared" si="3"/>
         <v>1718.693</v>
       </c>
     </row>
@@ -4742,7 +4742,7 @@
         <v>1721.09</v>
       </c>
       <c r="M66">
-        <f>AVERAGE(B66:K66)</f>
+        <f t="shared" si="3"/>
         <v>1725.4740000000002</v>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>1747.4</v>
       </c>
       <c r="M67">
-        <f>AVERAGE(B67:K67)</f>
+        <f t="shared" si="3"/>
         <v>1739.9330000000002</v>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
         <v>1758.31</v>
       </c>
       <c r="M68">
-        <f>AVERAGE(B68:K68)</f>
+        <f t="shared" si="3"/>
         <v>1756.4530000000002</v>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
         <v>1452.35</v>
       </c>
       <c r="M70">
-        <f>AVERAGE(B70:K70)</f>
+        <f t="shared" ref="M70:M100" si="4">AVERAGE(B70:K70)</f>
         <v>1396.575</v>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
         <v>1617.16</v>
       </c>
       <c r="M71">
-        <f>AVERAGE(B71:K71)</f>
+        <f t="shared" si="4"/>
         <v>1516.779</v>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
         <v>1753.26</v>
       </c>
       <c r="M72">
-        <f>AVERAGE(B72:K72)</f>
+        <f t="shared" si="4"/>
         <v>1606.6100000000001</v>
       </c>
     </row>
@@ -4976,7 +4976,7 @@
         <v>1782.24</v>
       </c>
       <c r="M73">
-        <f>AVERAGE(B73:K73)</f>
+        <f t="shared" si="4"/>
         <v>1706.8960000000002</v>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
         <v>1828.36</v>
       </c>
       <c r="M74">
-        <f>AVERAGE(B74:K74)</f>
+        <f t="shared" si="4"/>
         <v>1793.45</v>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
         <v>1930.76</v>
       </c>
       <c r="M75">
-        <f>AVERAGE(B75:K75)</f>
+        <f t="shared" si="4"/>
         <v>1871.3149999999998</v>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
         <v>2013.63</v>
       </c>
       <c r="M76">
-        <f>AVERAGE(B76:K76)</f>
+        <f t="shared" si="4"/>
         <v>1916.0280000000002</v>
       </c>
     </row>
@@ -5132,7 +5132,7 @@
         <v>2053.6799999999998</v>
       </c>
       <c r="M77">
-        <f>AVERAGE(B77:K77)</f>
+        <f t="shared" si="4"/>
         <v>1938.6240000000003</v>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
         <v>2069.67</v>
       </c>
       <c r="M78">
-        <f>AVERAGE(B78:K78)</f>
+        <f t="shared" si="4"/>
         <v>1957.1320000000001</v>
       </c>
     </row>
@@ -5210,7 +5210,7 @@
         <v>2039.04</v>
       </c>
       <c r="M79">
-        <f>AVERAGE(B79:K79)</f>
+        <f t="shared" si="4"/>
         <v>1973.779</v>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
         <v>2068.52</v>
       </c>
       <c r="M80">
-        <f>AVERAGE(B80:K80)</f>
+        <f t="shared" si="4"/>
         <v>1976.7049999999999</v>
       </c>
     </row>
@@ -5288,7 +5288,7 @@
         <v>2068.52</v>
       </c>
       <c r="M81">
-        <f>AVERAGE(B81:K81)</f>
+        <f t="shared" si="4"/>
         <v>1996.1410000000001</v>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
         <v>2067.37</v>
       </c>
       <c r="M82">
-        <f>AVERAGE(B82:K82)</f>
+        <f t="shared" si="4"/>
         <v>1990.3290000000002</v>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
         <v>2074.2800000000002</v>
       </c>
       <c r="M83">
-        <f>AVERAGE(B83:K83)</f>
+        <f t="shared" si="4"/>
         <v>2001.6519999999996</v>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
         <v>2062.79</v>
       </c>
       <c r="M84">
-        <f>AVERAGE(B84:K84)</f>
+        <f t="shared" si="4"/>
         <v>1995.261</v>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
         <v>2076.59</v>
       </c>
       <c r="M85">
-        <f>AVERAGE(B85:K85)</f>
+        <f t="shared" si="4"/>
         <v>1998.3329999999999</v>
       </c>
     </row>
@@ -5483,7 +5483,7 @@
         <v>2070.8200000000002</v>
       </c>
       <c r="M86">
-        <f>AVERAGE(B86:K86)</f>
+        <f t="shared" si="4"/>
         <v>1998.6849999999999</v>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
         <v>2045.77</v>
       </c>
       <c r="M87">
-        <f>AVERAGE(B87:K87)</f>
+        <f t="shared" si="4"/>
         <v>1990.895</v>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
         <v>2044.65</v>
       </c>
       <c r="M88">
-        <f>AVERAGE(B88:K88)</f>
+        <f t="shared" si="4"/>
         <v>1990.1880000000001</v>
       </c>
     </row>
@@ -5600,7 +5600,7 @@
         <v>2048.0300000000002</v>
       </c>
       <c r="M89">
-        <f>AVERAGE(B89:K89)</f>
+        <f t="shared" si="4"/>
         <v>1989.8539999999998</v>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
         <v>2039.04</v>
       </c>
       <c r="M90">
-        <f>AVERAGE(B90:K90)</f>
+        <f t="shared" si="4"/>
         <v>1982.1240000000003</v>
       </c>
     </row>
@@ -5678,7 +5678,7 @@
         <v>2037.93</v>
       </c>
       <c r="M91">
-        <f>AVERAGE(B91:K91)</f>
+        <f t="shared" si="4"/>
         <v>1987.2069999999999</v>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
         <v>2043.53</v>
       </c>
       <c r="M92">
-        <f>AVERAGE(B92:K92)</f>
+        <f t="shared" si="4"/>
         <v>1980.634</v>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
         <v>2033.47</v>
       </c>
       <c r="M93">
-        <f>AVERAGE(B93:K93)</f>
+        <f t="shared" si="4"/>
         <v>1994.0349999999999</v>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
         <v>2018.01</v>
       </c>
       <c r="M94">
-        <f>AVERAGE(B94:K94)</f>
+        <f t="shared" si="4"/>
         <v>1983.4929999999997</v>
       </c>
     </row>
@@ -5834,7 +5834,7 @@
         <v>2045.77</v>
       </c>
       <c r="M95">
-        <f>AVERAGE(B95:K95)</f>
+        <f t="shared" si="4"/>
         <v>1986.2090000000001</v>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
         <v>2051.41</v>
       </c>
       <c r="M96">
-        <f>AVERAGE(B96:K96)</f>
+        <f t="shared" si="4"/>
         <v>1968.152</v>
       </c>
     </row>
@@ -5912,7 +5912,7 @@
         <v>2039.04</v>
       </c>
       <c r="M97">
-        <f>AVERAGE(B97:K97)</f>
+        <f t="shared" si="4"/>
         <v>1967.4110000000001</v>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
         <v>2045.77</v>
       </c>
       <c r="M98">
-        <f>AVERAGE(B98:K98)</f>
+        <f t="shared" si="4"/>
         <v>1973.6329999999998</v>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
         <v>2060.5</v>
       </c>
       <c r="M99">
-        <f>AVERAGE(B99:K99)</f>
+        <f t="shared" si="4"/>
         <v>1984.866</v>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
         <v>2058.2199999999998</v>
       </c>
       <c r="M100">
-        <f>AVERAGE(B100:K100)</f>
+        <f t="shared" si="4"/>
         <v>1988.5139999999999</v>
       </c>
     </row>
